--- a/Travaux_pratiques/grille correction.xlsx
+++ b/Travaux_pratiques/grille correction.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cshawi-my.sharepoint.com/personal/mcbelanger_cshawi_ca/Documents/_Cegep_info/Ses_Hiver/420-0SY - Analyse/Évaluations/TP1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cshawi-my.sharepoint.com/personal/mcbelanger_cshawi_ca/Documents/_Cegep_info/Ses_Hiver/420-0SY - Analyse/420-OSY-SW-Analyse-relationnelle/Travaux_pratiques/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="329" documentId="8_{F52CFBD3-4A79-40BA-B487-4B4397E584C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47B60A2D-37F1-48AF-A945-F4A71BCB8DEF}"/>
+  <xr:revisionPtr revIDLastSave="330" documentId="8_{F52CFBD3-4A79-40BA-B487-4B4397E584C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F19C0571-47F1-43C5-B366-88757E836D09}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D80AD67B-D98D-4873-B1F7-AA0571878FE3}"/>
+    <workbookView xWindow="45972" yWindow="8376" windowWidth="23256" windowHeight="12456" xr2:uid="{D80AD67B-D98D-4873-B1F7-AA0571878FE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Grille de correction" sheetId="1" r:id="rId1"/>
@@ -349,12 +349,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -371,10 +371,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -694,406 +690,409 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96482D58-2858-42EB-B800-A81D35B1B4D4}">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="3"/>
+    <col min="1" max="1" width="55.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B2" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B4" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B5" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="12">
+      <c r="B6" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="17"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="10">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="17"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B9" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="12">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="17"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="17"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="21"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="21"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="21"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="21"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="21"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="21"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="21"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="21"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="21"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="21"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="21"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="21"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="21"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="10">
         <v>15</v>
       </c>
-      <c r="B14" s="12">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="12">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="10">
+    <row r="48" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="12">
+    <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="10">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="19"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="19"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="19"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="19"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="19">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="19"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="19"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="19"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="19"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="19"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="19"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="19"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="19"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="19"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" s="12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B48" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B50" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B51" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="9" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B52" s="10"/>
-    </row>
-    <row r="53" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="18" t="s">
+      <c r="B51" s="10"/>
+    </row>
+    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="12"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B54" s="12">
-        <f>SUM(B49:B51,B42:B47,B39:B40,B21:B37,B18:B19,B13:B16,B9:B11,B4:B6)</f>
+      <c r="B52" s="12"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="12">
+        <f>SUM(B48:B50,B41:B46,B38:B39,B20:B36,B17:B18,B12:B15,B8:B10,B3:B5)</f>
         <v>150</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B28:B37"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B27:B36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>